--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148137.9787743504</v>
+        <v>149382.9516544217</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9802884.450357867</v>
+        <v>9802884.450357866</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5448003.455443653</v>
+        <v>5436013.765335969</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +670,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>311.8856652398233</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>252.8252773014387</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435825</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
         <v>140.4611363452985</v>
@@ -820,16 +822,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>90.63804810364307</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>196.478449474296</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>140.0226407924334</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -902,7 +904,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>111.5422858787866</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1069,7 +1071,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>34.79484432979901</v>
+        <v>84.3940670177053</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1138,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>303.3109750897314</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>144.6722920031465</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>164.540418312084</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>236.2449788946804</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1370,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1382,10 +1384,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>106.3192265349076</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>147.9804087820034</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>92.5019652318651</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1585,7 +1587,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>79.85960538881794</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1765,25 +1767,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>68.83205621563042</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>65.76953573495733</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1841,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>395.8556795404756</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>271.4208062178495</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2017,7 +2019,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>99.70893198355611</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>177.6354464508438</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,19 +2083,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>132.0650913935297</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>92.38090300811142</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>58.31517967031814</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>139.4851730221162</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -2327,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>400.2956717864458</v>
@@ -2336,7 +2338,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>7.559668647600053</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>217.5391284324684</v>
       </c>
     </row>
     <row r="24">
@@ -2488,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>121.5810861820458</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2533,16 +2535,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>126.7163958965521</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.691048770444588</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>38.49556951057837</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>161.673798810038</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>146.3034971231914</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2792,7 +2794,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>392.1735044175642</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>101.2373641501135</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2953,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>51.58543740429392</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>192.8717243028908</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3032,22 +3034,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>148.8583524640244</v>
       </c>
       <c r="G32" t="n">
-        <v>82.38632349887014</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3266,7 +3268,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -3278,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>164.2272030681011</v>
       </c>
       <c r="H35" t="n">
-        <v>114.7169539084987</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>51.69511841098279</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.907313470297</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>345.9237910210456</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>57.83300046414789</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>133.907313470297</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>80.68448536009392</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>19.26156830669641</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.49144062231265</v>
+        <v>74.07475062513896</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>242.5938981288117</v>
       </c>
       <c r="G44" t="n">
-        <v>48.04448744442121</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4031,10 +4033,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4144,10 +4146,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>34.79484432979908</v>
+        <v>276.3539409783864</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.220555060086</v>
+        <v>1204.82568779444</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.220555060086</v>
+        <v>777.9249578077402</v>
       </c>
       <c r="D2" t="n">
-        <v>1590.220555060086</v>
+        <v>777.9249578077402</v>
       </c>
       <c r="E2" t="n">
-        <v>1164.243615207943</v>
+        <v>351.9480179555977</v>
       </c>
       <c r="F2" t="n">
-        <v>739.1194333973433</v>
+        <v>351.9480179555977</v>
       </c>
       <c r="G2" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H2" t="n">
         <v>36.91199246082674</v>
@@ -4328,19 +4330,19 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K2" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L2" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="M2" t="n">
-        <v>399.5154512777223</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N2" t="n">
-        <v>399.5154512777223</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O2" t="n">
         <v>815.1719019525203</v>
@@ -4358,22 +4360,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="W2" t="n">
-        <v>1590.220555060086</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="X2" t="n">
-        <v>1590.220555060086</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="Y2" t="n">
-        <v>1590.220555060086</v>
+        <v>1624.67405208597</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C3" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E3" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J3" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K3" t="n">
-        <v>765.3953884431487</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="L3" t="n">
-        <v>932.027809635875</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M3" t="n">
-        <v>932.027809635875</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N3" t="n">
-        <v>1388.813716338606</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.813716338606</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="Q3" t="n">
         <v>1845.599623041337</v>
@@ -4437,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4446,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>538.4095343022865</v>
+        <v>713.2115053602647</v>
       </c>
       <c r="C4" t="n">
-        <v>366.4369711812025</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="D4" t="n">
-        <v>203.1201983079732</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E4" t="n">
-        <v>36.91199246082674</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F4" t="n">
-        <v>36.91199246082674</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G4" t="n">
         <v>36.91199246082674</v>
@@ -4519,19 +4521,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U4" t="n">
-        <v>1754.046039098263</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V4" t="n">
-        <v>1472.334571706292</v>
+        <v>1647.13654276427</v>
       </c>
       <c r="W4" t="n">
-        <v>1197.482167878805</v>
+        <v>1372.284138936783</v>
       </c>
       <c r="X4" t="n">
-        <v>954.91827132461</v>
+        <v>1129.720242382588</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.5755030143521</v>
+        <v>903.3774740723304</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1425.751258749807</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C5" t="n">
-        <v>998.8505287631069</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D5" t="n">
-        <v>575.5579079481072</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E5" t="n">
-        <v>149.5809680959647</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F5" t="n">
-        <v>149.5809680959647</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G5" t="n">
-        <v>149.5809680959647</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H5" t="n">
         <v>36.91199246082674</v>
@@ -4568,25 +4570,25 @@
         <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L5" t="n">
-        <v>399.5154512777223</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M5" t="n">
-        <v>399.5154512777223</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N5" t="n">
-        <v>815.1719019525203</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
@@ -4607,10 +4609,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X5" t="n">
-        <v>1845.599623041337</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y5" t="n">
-        <v>1845.599623041337</v>
+        <v>1028.542354163974</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I6" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J6" t="n">
         <v>308.6094817404178</v>
@@ -4650,22 +4652,22 @@
         <v>765.3953884431487</v>
       </c>
       <c r="L6" t="n">
-        <v>765.3953884431487</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="M6" t="n">
-        <v>765.3953884431487</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="N6" t="n">
-        <v>1222.18129514588</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="O6" t="n">
-        <v>1678.967201848611</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4674,7 +4676,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4683,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>911.6745856373313</v>
+        <v>961.7748105746105</v>
       </c>
       <c r="C7" t="n">
-        <v>739.7020225162473</v>
+        <v>789.8022474535264</v>
       </c>
       <c r="D7" t="n">
-        <v>576.385249643018</v>
+        <v>626.4854745802971</v>
       </c>
       <c r="E7" t="n">
-        <v>410.1770437958716</v>
+        <v>460.2772687331507</v>
       </c>
       <c r="F7" t="n">
-        <v>238.315269570432</v>
+        <v>288.4154945077111</v>
       </c>
       <c r="G7" t="n">
-        <v>72.05829986466412</v>
+        <v>122.1585248019432</v>
       </c>
       <c r="H7" t="n">
         <v>36.91199246082674</v>
@@ -4723,22 +4725,22 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>76.20565529896515</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K7" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L7" t="n">
-        <v>430.8949765933859</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M7" t="n">
-        <v>822.0807715636367</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P7" t="n">
         <v>1845.599623041337</v>
@@ -4750,25 +4752,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T7" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U7" t="n">
-        <v>1845.599623041337</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V7" t="n">
-        <v>1845.599623041337</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="W7" t="n">
-        <v>1570.74721921385</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="X7" t="n">
-        <v>1328.183322659655</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="Y7" t="n">
-        <v>1101.840554349397</v>
+        <v>1151.940779286676</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1440.262352996227</v>
+        <v>770.1874447603867</v>
       </c>
       <c r="C8" t="n">
-        <v>1013.361623009527</v>
+        <v>343.2867147736868</v>
       </c>
       <c r="D8" t="n">
-        <v>1013.361623009527</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E8" t="n">
-        <v>587.3846831573848</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F8" t="n">
-        <v>441.2510548713781</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G8" t="n">
         <v>36.91199246082674</v>
@@ -4802,19 +4804,19 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6978991635576</v>
+        <v>814.4714747539724</v>
       </c>
       <c r="L8" t="n">
-        <v>950.4838058662885</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="M8" t="n">
-        <v>950.4838058662885</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="N8" t="n">
-        <v>1271.257381456703</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O8" t="n">
         <v>1728.043288159434</v>
@@ -4835,19 +4837,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="X8" t="n">
-        <v>1845.599623041337</v>
+        <v>1175.524714805496</v>
       </c>
       <c r="Y8" t="n">
-        <v>1440.262352996227</v>
+        <v>770.1874447603867</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="K9" t="n">
-        <v>765.3953884431487</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="L9" t="n">
-        <v>765.3953884431487</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="M9" t="n">
-        <v>765.3953884431487</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="N9" t="n">
-        <v>932.0278096358747</v>
+        <v>1414.716355530931</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q9" t="n">
         <v>1845.599623041337</v>
@@ -4911,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4920,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="10">
@@ -4960,22 +4962,22 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N10" t="n">
-        <v>1444.297549031529</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O10" t="n">
-        <v>1799.725677711293</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P10" t="n">
         <v>1845.599623041337</v>
@@ -4987,19 +4989,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="W10" t="n">
-        <v>1679.397180301858</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="X10" t="n">
         <v>1436.833283747663</v>
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1845.599623041337</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="C11" t="n">
-        <v>1418.698893054637</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="D11" t="n">
-        <v>995.4062722396372</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="E11" t="n">
-        <v>569.4293323874948</v>
+        <v>611.5113346572886</v>
       </c>
       <c r="F11" t="n">
-        <v>144.305150576895</v>
+        <v>186.3871528466888</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082674</v>
+        <v>186.3871528466888</v>
       </c>
       <c r="H11" t="n">
         <v>36.91199246082674</v>
@@ -5042,25 +5044,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K11" t="n">
+        <v>36.91199246082674</v>
+      </c>
+      <c r="L11" t="n">
         <v>493.6978991635576</v>
       </c>
-      <c r="L11" t="n">
-        <v>814.4714747539724</v>
-      </c>
       <c r="M11" t="n">
-        <v>1271.257381456703</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="N11" t="n">
-        <v>1271.257381456703</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O11" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P11" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q11" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
@@ -5078,13 +5080,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W11" t="n">
-        <v>1845.599623041337</v>
+        <v>1449.208273341684</v>
       </c>
       <c r="X11" t="n">
-        <v>1845.599623041337</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="Y11" t="n">
-        <v>1845.599623041337</v>
+        <v>1037.488274509431</v>
       </c>
     </row>
     <row r="12">
@@ -5121,7 +5123,7 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K12" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L12" t="n">
         <v>493.6978991635576</v>
@@ -5136,7 +5138,7 @@
         <v>1407.269712569019</v>
       </c>
       <c r="P12" t="n">
-        <v>1407.269712569019</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q12" t="n">
         <v>1845.599623041337</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>280.4768292123964</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="C13" t="n">
-        <v>280.4768292123964</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="D13" t="n">
-        <v>280.4768292123964</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="E13" t="n">
-        <v>280.4768292123964</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="F13" t="n">
-        <v>280.4768292123964</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G13" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I13" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J13" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K13" t="n">
-        <v>94.40332068498475</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L13" t="n">
-        <v>449.0926419794055</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M13" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N13" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O13" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P13" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R13" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S13" t="n">
-        <v>1628.425962247645</v>
+        <v>1752.163294524301</v>
       </c>
       <c r="T13" t="n">
-        <v>1385.086614473545</v>
+        <v>1508.823946750201</v>
       </c>
       <c r="U13" t="n">
-        <v>1104.902165973849</v>
+        <v>1228.639498250506</v>
       </c>
       <c r="V13" t="n">
-        <v>1024.235897904336</v>
+        <v>946.9280308585344</v>
       </c>
       <c r="W13" t="n">
-        <v>749.3834940768493</v>
+        <v>672.0756270310475</v>
       </c>
       <c r="X13" t="n">
-        <v>506.8195975226544</v>
+        <v>429.5117304768526</v>
       </c>
       <c r="Y13" t="n">
-        <v>280.4768292123964</v>
+        <v>203.1689621665946</v>
       </c>
     </row>
     <row r="14">
@@ -5276,25 +5278,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J14" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K14" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L14" t="n">
-        <v>814.4714747539724</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M14" t="n">
-        <v>1271.257381456703</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="N14" t="n">
-        <v>1271.257381456703</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O14" t="n">
-        <v>1728.043288159434</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P14" t="n">
-        <v>1728.043288159434</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="Q14" t="n">
         <v>1728.043288159434</v>
@@ -5358,19 +5360,19 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K15" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L15" t="n">
-        <v>36.91199246082674</v>
+        <v>932.0278096358747</v>
       </c>
       <c r="M15" t="n">
-        <v>493.6978991635576</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N15" t="n">
-        <v>932.0278096358747</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O15" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P15" t="n">
         <v>1845.599623041337</v>
@@ -5410,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.093114985063</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="C16" t="n">
-        <v>948.1205518639796</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D16" t="n">
-        <v>784.8037789907503</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E16" t="n">
-        <v>618.5955731436038</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F16" t="n">
-        <v>446.7337989181643</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G16" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I16" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J16" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K16" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L16" t="n">
-        <v>320.9309218908219</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M16" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N16" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O16" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P16" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q16" t="n">
         <v>1845.599623041337</v>
@@ -5461,25 +5463,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S16" t="n">
-        <v>1779.165748561582</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T16" t="n">
-        <v>1779.165748561582</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U16" t="n">
-        <v>1779.165748561582</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V16" t="n">
-        <v>1779.165748561582</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W16" t="n">
-        <v>1779.165748561582</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X16" t="n">
-        <v>1536.601852007387</v>
+        <v>522.9480589938881</v>
       </c>
       <c r="Y16" t="n">
-        <v>1310.259083697129</v>
+        <v>296.6052906836302</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1587.244713637749</v>
+        <v>436.766214218883</v>
       </c>
       <c r="C17" t="n">
-        <v>1160.343983651049</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D17" t="n">
-        <v>737.0513628360495</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E17" t="n">
-        <v>311.0744229839071</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F17" t="n">
         <v>36.91199246082674</v>
@@ -5513,52 +5515,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J17" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K17" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L17" t="n">
-        <v>950.4838058662885</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M17" t="n">
-        <v>950.4838058662885</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N17" t="n">
-        <v>950.4838058662885</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O17" t="n">
-        <v>1389.514143537154</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P17" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q17" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R17" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S17" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T17" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U17" t="n">
-        <v>1587.244713637749</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V17" t="n">
-        <v>1587.244713637749</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="W17" t="n">
-        <v>1587.244713637749</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="X17" t="n">
-        <v>1587.244713637749</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="Y17" t="n">
-        <v>1587.244713637749</v>
+        <v>856.614578510413</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C18" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250718</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E18" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F18" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082694</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082694</v>
       </c>
       <c r="J18" t="n">
-        <v>36.91199246082674</v>
+        <v>308.609481740418</v>
       </c>
       <c r="K18" t="n">
-        <v>36.91199246082674</v>
+        <v>765.3953884431489</v>
       </c>
       <c r="L18" t="n">
-        <v>493.6978991635576</v>
+        <v>765.3953884431489</v>
       </c>
       <c r="M18" t="n">
-        <v>950.4838058662885</v>
+        <v>765.3953884431489</v>
       </c>
       <c r="N18" t="n">
-        <v>950.4838058662885</v>
+        <v>765.3953884431489</v>
       </c>
       <c r="O18" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P18" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q18" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R18" t="n">
         <v>1845.599623041337</v>
@@ -5622,7 +5624,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U18" t="n">
         <v>1437.627243819906</v>
@@ -5631,13 +5633,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W18" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X18" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y18" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>977.2443711461769</v>
+        <v>690.7995680049638</v>
       </c>
       <c r="C19" t="n">
-        <v>805.2718080250929</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="D19" t="n">
-        <v>641.9550351518636</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="E19" t="n">
-        <v>475.7468293047172</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F19" t="n">
-        <v>303.8850550792775</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G19" t="n">
-        <v>137.6280853735097</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H19" t="n">
         <v>36.91199246082674</v>
@@ -5674,19 +5676,19 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K19" t="n">
-        <v>263.4395936666639</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L19" t="n">
-        <v>618.1289149610848</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M19" t="n">
-        <v>1009.314709931336</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N19" t="n">
-        <v>1386.806220807371</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O19" t="n">
-        <v>1742.234349487134</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P19" t="n">
         <v>1845.599623041337</v>
@@ -5701,22 +5703,22 @@
         <v>1675.464575560472</v>
       </c>
       <c r="T19" t="n">
-        <v>1675.464575560472</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U19" t="n">
-        <v>1675.464575560472</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V19" t="n">
-        <v>1393.753108168501</v>
+        <v>870.229311894705</v>
       </c>
       <c r="W19" t="n">
-        <v>1393.753108168501</v>
+        <v>690.7995680049638</v>
       </c>
       <c r="X19" t="n">
-        <v>1393.753108168501</v>
+        <v>690.7995680049638</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.410339858243</v>
+        <v>690.7995680049638</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>894.6915758509472</v>
+        <v>1425.751258749807</v>
       </c>
       <c r="C20" t="n">
-        <v>467.7908458642473</v>
+        <v>1425.751258749807</v>
       </c>
       <c r="D20" t="n">
-        <v>44.49822504924753</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="E20" t="n">
-        <v>44.49822504924753</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924753</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K20" t="n">
-        <v>595.1637600336857</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L20" t="n">
-        <v>595.1637600336857</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M20" t="n">
-        <v>1145.829295018124</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="N20" t="n">
-        <v>1696.494830002562</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="O20" t="n">
-        <v>2107.354917580474</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P20" t="n">
-        <v>2107.354917580474</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580474</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V20" t="n">
-        <v>2131.59720901984</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W20" t="n">
-        <v>2131.59720901984</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X20" t="n">
-        <v>1719.877210187587</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y20" t="n">
-        <v>1314.539940142477</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>611.6217160807028</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C21" t="n">
-        <v>494.1158125982075</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134926</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864298</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F21" t="n">
-        <v>191.928090069334</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693795</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924753</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K21" t="n">
-        <v>595.1637600336857</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="L21" t="n">
-        <v>1145.829295018124</v>
+        <v>475.2419029331439</v>
       </c>
       <c r="M21" t="n">
-        <v>1145.829295018124</v>
+        <v>932.0278096358747</v>
       </c>
       <c r="N21" t="n">
-        <v>1220.501010560616</v>
+        <v>932.0278096358747</v>
       </c>
       <c r="O21" t="n">
-        <v>1220.501010560616</v>
+        <v>932.0278096358747</v>
       </c>
       <c r="P21" t="n">
-        <v>1771.166545545054</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q21" t="n">
-        <v>1771.166545545054</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S21" t="n">
-        <v>1771.861608191012</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1629.98167248869</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U21" t="n">
-        <v>1445.213476408327</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V21" t="n">
-        <v>1240.240337547593</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1043.71896038081</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X21" t="n">
-        <v>880.2416141474731</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y21" t="n">
-        <v>740.5487255007655</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>685.0860276212348</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C22" t="n">
-        <v>685.0860276212348</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D22" t="n">
-        <v>685.0860276212348</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J22" t="n">
-        <v>101.9895532734055</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K22" t="n">
-        <v>328.5171544792427</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L22" t="n">
-        <v>683.2064757736634</v>
+        <v>303.8948463526241</v>
       </c>
       <c r="M22" t="n">
-        <v>1074.392270743914</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N22" t="n">
-        <v>1451.88378161995</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O22" t="n">
-        <v>1807.311910299713</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P22" t="n">
-        <v>2097.911122221614</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q22" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>2177.872639149549</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S22" t="n">
-        <v>2007.737591668684</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.398243894584</v>
+        <v>1704.705508877583</v>
       </c>
       <c r="U22" t="n">
-        <v>1484.213795394888</v>
+        <v>1424.521060377887</v>
       </c>
       <c r="V22" t="n">
-        <v>1202.502328002917</v>
+        <v>1142.809592985916</v>
       </c>
       <c r="W22" t="n">
-        <v>927.6499241754298</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X22" t="n">
-        <v>685.0860276212348</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y22" t="n">
-        <v>685.0860276212348</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1633.627449039593</v>
+        <v>1173.606395972464</v>
       </c>
       <c r="C23" t="n">
-        <v>1206.726719052893</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D23" t="n">
-        <v>1206.726719052893</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E23" t="n">
-        <v>1206.726719052893</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F23" t="n">
-        <v>781.6025372422929</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G23" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H23" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I23" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>595.1637600336857</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L23" t="n">
-        <v>595.1637600336857</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M23" t="n">
-        <v>595.1637600336857</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N23" t="n">
-        <v>595.1637600336857</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O23" t="n">
-        <v>1100.603903091853</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P23" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q23" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R23" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T23" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U23" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V23" t="n">
-        <v>1633.627449039593</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W23" t="n">
-        <v>1633.627449039593</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X23" t="n">
-        <v>1633.627449039593</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y23" t="n">
-        <v>1633.627449039593</v>
+        <v>1593.454760263994</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J24" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K24" t="n">
-        <v>866.8612493132769</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L24" t="n">
-        <v>866.8612493132769</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M24" t="n">
-        <v>866.8612493132769</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="N24" t="n">
-        <v>866.8612493132769</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O24" t="n">
-        <v>866.8612493132769</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P24" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q24" t="n">
         <v>1853.185855629757</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>840.6667190778094</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C25" t="n">
-        <v>668.6941559567254</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D25" t="n">
-        <v>505.3773830834961</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E25" t="n">
-        <v>339.1691772363496</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F25" t="n">
-        <v>167.30740301091</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G25" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H25" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I25" t="n">
         <v>44.49822504924753</v>
@@ -6169,28 +6171,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S25" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T25" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U25" t="n">
-        <v>1774.591756481815</v>
+        <v>1727.553143168988</v>
       </c>
       <c r="V25" t="n">
-        <v>1774.591756481815</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="W25" t="n">
-        <v>1499.739352654328</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="X25" t="n">
-        <v>1257.175456100133</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="Y25" t="n">
-        <v>1030.832687789875</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>769.2673335619127</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C26" t="n">
-        <v>342.3666035752127</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D26" t="n">
-        <v>342.3666035752127</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E26" t="n">
-        <v>342.3666035752127</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F26" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G26" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I26" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K26" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L26" t="n">
-        <v>957.7672188505812</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M26" t="n">
-        <v>957.7672188505812</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N26" t="n">
         <v>1100.603903091853</v>
@@ -6254,22 +6256,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T26" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U26" t="n">
-        <v>1997.227046385349</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V26" t="n">
-        <v>1997.227046385349</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W26" t="n">
-        <v>1600.835696685695</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X26" t="n">
-        <v>1189.115697853443</v>
+        <v>2186.026838815328</v>
       </c>
       <c r="Y26" t="n">
-        <v>1189.115697853443</v>
+        <v>1780.689568770218</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6305,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K27" t="n">
-        <v>602.6104029955975</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L27" t="n">
-        <v>669.8354755761777</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M27" t="n">
-        <v>669.8354755761777</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N27" t="n">
-        <v>669.8354755761777</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O27" t="n">
-        <v>1220.501010560616</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P27" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q27" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R27" t="n">
         <v>1853.185855629757</v>
@@ -6403,22 +6405,22 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q28" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S28" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T28" t="n">
-        <v>2224.911252462377</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U28" t="n">
-        <v>2224.911252462377</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="V28" t="n">
-        <v>2061.60438497749</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="W28" t="n">
         <v>1786.751981150003</v>
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>863.9256988112818</v>
+        <v>894.6915758509472</v>
       </c>
       <c r="C29" t="n">
         <v>467.7908458642473</v>
@@ -6467,16 +6469,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L29" t="n">
-        <v>595.1637600336857</v>
+        <v>572.914647509062</v>
       </c>
       <c r="M29" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N29" t="n">
-        <v>1696.494830002562</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O29" t="n">
-        <v>2224.911252462377</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P29" t="n">
         <v>2224.911252462377</v>
@@ -6488,25 +6490,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T29" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U29" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V29" t="n">
-        <v>1283.774063102812</v>
+        <v>2122.651288674383</v>
       </c>
       <c r="W29" t="n">
-        <v>1283.774063102812</v>
+        <v>1726.25993897473</v>
       </c>
       <c r="X29" t="n">
-        <v>1283.774063102812</v>
+        <v>1314.539940142477</v>
       </c>
       <c r="Y29" t="n">
-        <v>1283.774063102812</v>
+        <v>1314.539940142477</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6545,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K30" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L30" t="n">
-        <v>201.1892506764427</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M30" t="n">
-        <v>751.8547856608809</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N30" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O30" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P30" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q30" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R30" t="n">
         <v>1853.185855629757</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C31" t="n">
-        <v>96.60472747782725</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D31" t="n">
-        <v>96.60472747782725</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E31" t="n">
-        <v>96.60472747782725</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F31" t="n">
-        <v>96.60472747782725</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G31" t="n">
-        <v>96.60472747782725</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H31" t="n">
-        <v>96.60472747782725</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I31" t="n">
         <v>44.49822504924753</v>
@@ -6640,31 +6642,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q31" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R31" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S31" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U31" t="n">
-        <v>1484.213795394888</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="V31" t="n">
-        <v>1202.502328002917</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="W31" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X31" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y31" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>887.3827134031587</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="C32" t="n">
-        <v>460.4819834164588</v>
+        <v>1044.129757902273</v>
       </c>
       <c r="D32" t="n">
-        <v>460.4819834164588</v>
+        <v>620.8371370872733</v>
       </c>
       <c r="E32" t="n">
-        <v>460.4819834164588</v>
+        <v>194.8601972351308</v>
       </c>
       <c r="F32" t="n">
-        <v>460.4819834164588</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G32" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H32" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I32" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L32" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M32" t="n">
-        <v>1696.494830002562</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N32" t="n">
-        <v>2107.354917580474</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O32" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P32" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R32" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T32" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U32" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V32" t="n">
-        <v>1283.774063102812</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W32" t="n">
-        <v>887.3827134031587</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X32" t="n">
-        <v>887.3827134031587</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="Y32" t="n">
-        <v>887.3827134031587</v>
+        <v>1471.030487888973</v>
       </c>
     </row>
     <row r="33">
@@ -6783,10 +6785,10 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L33" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M33" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N33" t="n">
         <v>1145.829295018124</v>
@@ -6795,10 +6797,10 @@
         <v>1696.494830002562</v>
       </c>
       <c r="P33" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q33" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R33" t="n">
         <v>1853.185855629757</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C34" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D34" t="n">
-        <v>792.3900115791711</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G34" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I34" t="n">
         <v>44.49822504924753</v>
@@ -6880,28 +6882,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R34" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S34" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T34" t="n">
-        <v>2224.911252462377</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U34" t="n">
-        <v>2224.911252462377</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V34" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W34" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X34" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y34" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>988.0056192934842</v>
+        <v>1393.342889338594</v>
       </c>
       <c r="C35" t="n">
-        <v>988.0056192934842</v>
+        <v>966.4421593518939</v>
       </c>
       <c r="D35" t="n">
-        <v>564.7129984784845</v>
+        <v>543.1495385368942</v>
       </c>
       <c r="E35" t="n">
-        <v>564.7129984784845</v>
+        <v>543.1495385368942</v>
       </c>
       <c r="F35" t="n">
-        <v>564.7129984784845</v>
+        <v>543.1495385368942</v>
       </c>
       <c r="G35" t="n">
-        <v>160.3739360679331</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I35" t="n">
         <v>44.49822504924753</v>
@@ -6941,16 +6943,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L35" t="n">
-        <v>455.3583126271592</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M35" t="n">
-        <v>1006.023847611597</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N35" t="n">
+        <v>1145.829295018124</v>
+      </c>
+      <c r="O35" t="n">
         <v>1556.689382596036</v>
-      </c>
-      <c r="O35" t="n">
-        <v>2107.354917580474</v>
       </c>
       <c r="P35" t="n">
         <v>2107.354917580474</v>
@@ -6980,7 +6982,7 @@
         <v>1813.191253630124</v>
       </c>
       <c r="Y35" t="n">
-        <v>1407.853983585014</v>
+        <v>1813.191253630124</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7016,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K36" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L36" t="n">
-        <v>44.49822504924753</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M36" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N36" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O36" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P36" t="n">
         <v>1853.185855629757</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>268.5772905989122</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="C37" t="n">
-        <v>216.3599992746871</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="D37" t="n">
-        <v>216.3599992746871</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E37" t="n">
-        <v>216.3599992746871</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F37" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G37" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H37" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I37" t="n">
         <v>44.49822504924753</v>
@@ -7096,22 +7098,22 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L37" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M37" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N37" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P37" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q37" t="n">
         <v>2224.911252462377</v>
@@ -7135,10 +7137,10 @@
         <v>927.6499241754307</v>
       </c>
       <c r="X37" t="n">
-        <v>685.0860276212358</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="Y37" t="n">
-        <v>458.7432593109778</v>
+        <v>927.6499241754307</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>483.7341587163277</v>
+        <v>929.588447107476</v>
       </c>
       <c r="C38" t="n">
-        <v>483.7341587163277</v>
+        <v>502.687717120776</v>
       </c>
       <c r="D38" t="n">
-        <v>483.7341587163277</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="E38" t="n">
-        <v>483.7341587163277</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F38" t="n">
-        <v>483.7341587163277</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G38" t="n">
         <v>79.39509630577632</v>
@@ -7175,49 +7177,49 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K38" t="n">
-        <v>116.829168004879</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L38" t="n">
-        <v>116.829168004879</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M38" t="n">
-        <v>667.4947029893171</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N38" t="n">
-        <v>1218.160237973755</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O38" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P38" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q38" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R38" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T38" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U38" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V38" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W38" t="n">
-        <v>1244.872128276909</v>
+        <v>2166.494080276369</v>
       </c>
       <c r="X38" t="n">
-        <v>833.1521294446566</v>
+        <v>1754.774081444116</v>
       </c>
       <c r="Y38" t="n">
-        <v>833.1521294446566</v>
+        <v>1349.436811399006</v>
       </c>
     </row>
     <row r="39">
@@ -7257,7 +7259,7 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L39" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M39" t="n">
         <v>595.1637600336857</v>
@@ -7269,10 +7271,10 @@
         <v>1696.494830002562</v>
       </c>
       <c r="P39" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q39" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R39" t="n">
         <v>1853.185855629757</v>
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>792.3900115791711</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C40" t="n">
-        <v>792.3900115791711</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D40" t="n">
         <v>792.3900115791711</v>
@@ -7330,52 +7332,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J40" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K40" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L40" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M40" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N40" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O40" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P40" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q40" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U40" t="n">
-        <v>1484.213795394889</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V40" t="n">
-        <v>1202.502328002918</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W40" t="n">
-        <v>927.6499241754307</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X40" t="n">
-        <v>792.3900115791711</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y40" t="n">
-        <v>792.3900115791711</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>467.7908458642473</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="C41" t="n">
-        <v>467.7908458642473</v>
+        <v>1435.288318945229</v>
       </c>
       <c r="D41" t="n">
-        <v>44.49822504924753</v>
+        <v>1011.99569813023</v>
       </c>
       <c r="E41" t="n">
-        <v>44.49822504924753</v>
+        <v>586.0187582780871</v>
       </c>
       <c r="F41" t="n">
-        <v>44.49822504924753</v>
+        <v>160.8945764674874</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924753</v>
+        <v>160.8945764674874</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I41" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K41" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L41" t="n">
-        <v>407.101683866143</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M41" t="n">
-        <v>957.7672188505812</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N41" t="n">
-        <v>1100.603903091853</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O41" t="n">
-        <v>1100.603903091853</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P41" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R41" t="n">
         <v>2224.911252462377</v>
@@ -7442,19 +7444,19 @@
         <v>2120.543958335517</v>
       </c>
       <c r="U41" t="n">
-        <v>2120.543958335517</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V41" t="n">
-        <v>2101.087828732793</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W41" t="n">
-        <v>1704.69647903314</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="X41" t="n">
-        <v>1292.976480200887</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="Y41" t="n">
-        <v>887.6392101557774</v>
+        <v>1862.189048931929</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J42" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K42" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L42" t="n">
-        <v>316.1957143288386</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M42" t="n">
-        <v>316.1957143288386</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N42" t="n">
-        <v>866.8612493132769</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O42" t="n">
-        <v>866.8612493132769</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P42" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q42" t="n">
         <v>1853.185855629757</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>360.2670566621771</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C43" t="n">
-        <v>188.2944935410931</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D43" t="n">
-        <v>188.2944935410931</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E43" t="n">
-        <v>188.2944935410931</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F43" t="n">
-        <v>188.2944935410931</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G43" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H43" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I43" t="n">
         <v>44.49822504924753</v>
@@ -7606,13 +7608,13 @@
         <v>1202.502328002918</v>
       </c>
       <c r="W43" t="n">
-        <v>927.6499241754307</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="X43" t="n">
-        <v>685.0860276212358</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="Y43" t="n">
-        <v>458.7432593109778</v>
+        <v>1202.502328002918</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>808.4343380947869</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="C44" t="n">
-        <v>808.4343380947869</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="D44" t="n">
-        <v>808.4343380947869</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="E44" t="n">
-        <v>808.4343380947869</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="F44" t="n">
-        <v>383.3101562841871</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G44" t="n">
-        <v>334.7803709867919</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K44" t="n">
-        <v>856.3013579804531</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L44" t="n">
-        <v>856.3013579804531</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M44" t="n">
-        <v>1313.087264683184</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N44" t="n">
-        <v>1728.043288159434</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O44" t="n">
-        <v>1728.043288159434</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P44" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q44" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T44" t="n">
-        <v>1624.67405208597</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U44" t="n">
-        <v>1624.67405208597</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V44" t="n">
-        <v>1624.67405208597</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W44" t="n">
-        <v>1228.282702386317</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X44" t="n">
-        <v>1228.282702386317</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="Y44" t="n">
-        <v>1228.282702386317</v>
+        <v>991.7500075300184</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>44.35863542273854</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
-        <v>44.35863542273854</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>44.35863542273854</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L45" t="n">
-        <v>44.35863542273854</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M45" t="n">
-        <v>393.2225928484409</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N45" t="n">
-        <v>850.0084995511718</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O45" t="n">
-        <v>1306.794406253903</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P45" t="n">
-        <v>1763.580312956634</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q45" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>876.528278233494</v>
+        <v>545.9957668907073</v>
       </c>
       <c r="C46" t="n">
-        <v>704.55571511241</v>
+        <v>374.0232037696233</v>
       </c>
       <c r="D46" t="n">
-        <v>541.2389422391807</v>
+        <v>210.706430896394</v>
       </c>
       <c r="E46" t="n">
-        <v>375.0307363920342</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F46" t="n">
-        <v>203.1689621665946</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L46" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N46" t="n">
-        <v>1444.297549031529</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O46" t="n">
-        <v>1718.599492800575</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P46" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S46" t="n">
-        <v>1845.599623041337</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T46" t="n">
-        <v>1845.599623041337</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U46" t="n">
-        <v>1845.599623041337</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V46" t="n">
-        <v>1810.453315637499</v>
+        <v>1205.068400467226</v>
       </c>
       <c r="W46" t="n">
-        <v>1535.600911810012</v>
+        <v>1205.068400467226</v>
       </c>
       <c r="X46" t="n">
-        <v>1293.037015255818</v>
+        <v>962.5045039130309</v>
       </c>
       <c r="Y46" t="n">
-        <v>1066.69424694556</v>
+        <v>736.161735602773</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
@@ -7985,13 +7987,13 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>457.2459600376383</v>
+        <v>362.1121742943703</v>
       </c>
       <c r="P2" t="n">
         <v>498.9752675705655</v>
@@ -8052,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>190.8306636765793</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N3" t="n">
         <v>482.7429339738759</v>
@@ -8073,10 +8075,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>183.5407536736397</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8216,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N5" t="n">
-        <v>457.1346235160602</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,25 +8300,25 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>108.5645695103309</v>
       </c>
       <c r="N6" t="n">
         <v>482.7429339738759</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>190.0864181671784</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>60.327324507274</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8389,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>126.7901678844537</v>
       </c>
       <c r="Q7" t="n">
         <v>24.61956276478495</v>
@@ -8450,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>454.9120992556681</v>
       </c>
       <c r="L8" t="n">
         <v>499.7119481929572</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N8" t="n">
-        <v>361.2933355520367</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N9" t="n">
-        <v>189.6586051758912</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>458.4075134701067</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8608,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8626,7 +8628,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
         <v>24.61956276478495</v>
@@ -8690,19 +8692,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>362.3257551502136</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M11" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O11" t="n">
-        <v>498.7908651163583</v>
+        <v>480.1484446815972</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
@@ -8711,7 +8713,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,10 +8771,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L12" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8784,10 +8786,10 @@
         <v>484.5717954825564</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>464.5283265304016</v>
       </c>
       <c r="Q12" t="n">
-        <v>465.5045236145514</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8845,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>271.0481665010509</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
@@ -8866,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>457.4595408934817</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M14" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O14" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>360.1383873221887</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9006,22 +9008,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>465.2725720398024</v>
       </c>
       <c r="M15" t="n">
         <v>484.4966862726622</v>
       </c>
       <c r="N15" t="n">
-        <v>464.1005135391146</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O15" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9082,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L16" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>400.5044494188121</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9103,7 +9105,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>457.2862635810461</v>
       </c>
       <c r="N17" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>480.8559469023526</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>465.9293750477951</v>
+        <v>108.6396787202251</v>
       </c>
       <c r="P18" t="n">
         <v>483.1707469651629</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9322,7 +9324,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9337,7 +9339,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
         <v>24.61956276478495</v>
@@ -9401,28 +9403,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>591.9924139104035</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L20" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>593.6590760150259</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N20" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>452.4011488286621</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>480.3328471358044</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>578.7428998298237</v>
+        <v>190.8306636765791</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N21" t="n">
-        <v>96.76900350898808</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>577.9986543204228</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9559,10 +9561,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>233.5263615801855</v>
       </c>
       <c r="M22" t="n">
         <v>417.7126065281028</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>591.9924139104035</v>
+        <v>203.2524428583638</v>
       </c>
       <c r="L23" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O23" t="n">
-        <v>547.9365584046775</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>578.6270469489275</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9726,16 +9728,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P24" t="n">
-        <v>549.2245073196783</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>591.9924139104035</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M26" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>181.5591018660332</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>593.6187724716183</v>
@@ -9951,31 +9953,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>90.41920043198735</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>541.2748327507026</v>
       </c>
       <c r="O27" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10051,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10115,7 +10117,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>594.539855548217</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M29" t="n">
         <v>593.6590760150259</v>
@@ -10124,10 +10126,10 @@
         <v>593.5074359500402</v>
       </c>
       <c r="O29" t="n">
-        <v>571.1449214366446</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10191,28 +10193,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L30" t="n">
-        <v>180.7888499740227</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>577.5708413291358</v>
+        <v>184.1630016116739</v>
       </c>
       <c r="O30" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10288,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M32" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>452.289812307084</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P32" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,25 +10433,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M33" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P33" t="n">
-        <v>180.0446044646217</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>98.17301358442491</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10591,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>453.322231905261</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>593.6590760150259</v>
@@ -10598,10 +10600,10 @@
         <v>593.5074359500402</v>
       </c>
       <c r="O35" t="n">
-        <v>593.6187724716183</v>
+        <v>452.4011488286621</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10662,16 +10664,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>462.5747547263935</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>577.5708413291358</v>
@@ -10680,7 +10682,7 @@
         <v>579.3997028378163</v>
       </c>
       <c r="P36" t="n">
-        <v>180.0446044646217</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10744,7 +10746,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10762,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10823,16 +10825,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>108.8261593358512</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M38" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N38" t="n">
-        <v>593.5074359500402</v>
+        <v>452.289812307084</v>
       </c>
       <c r="O38" t="n">
         <v>593.6187724716183</v>
@@ -10841,10 +10843,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,10 +10907,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N39" t="n">
         <v>577.5708413291358</v>
@@ -10917,13 +10919,13 @@
         <v>579.3997028378163</v>
       </c>
       <c r="P39" t="n">
-        <v>180.0446044646217</v>
+        <v>97.19681650027508</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
@@ -11057,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>111.3736009736648</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>181.5591018660332</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
@@ -11081,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11138,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>180.7888499740228</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N42" t="n">
         <v>577.5708413291358</v>
@@ -11154,10 +11156,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>549.2245073196783</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>497.1645065551435</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M44" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>456.4271212953049</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11373,7 +11375,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,22 +11384,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>375.4846162958657</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651629</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11455,7 +11457,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11467,10 +11469,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>299.5718579722078</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -22556,13 +22558,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>88.41000654662258</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22598,7 +22600,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -22607,7 +22609,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>139.6021589012179</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -22708,16 +22710,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -22759,10 +22761,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>186.7445559110557</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>82.41590324375542</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>275.6272398561813</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22790,7 +22792,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -22799,7 +22801,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>183.3474088619189</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22847,10 +22849,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22957,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>107.5634614771281</v>
+        <v>57.96423878922185</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -22990,25 +22992,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -23024,16 +23026,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>115.7487195171183</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>276.2006479893472</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23075,7 +23077,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -23084,7 +23086,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23227,7 +23229,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -23239,10 +23241,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>107.5634614771281</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>3.893278693972519</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23258,10 +23260,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>293.9764452515383</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>146.9092859587021</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23318,10 +23320,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23428,13 +23430,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>75.93173177419139</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>199.0347473292334</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>101.4207812742427</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23703,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>102.6641612710992</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>26.77604314635721</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>149.4521337746442</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>42.64937382337104</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23941,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>94.46843333836833</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23969,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>286.99460321332</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -24026,16 +24028,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>261.5336177169016</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>106.2309441183568</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>101.4207812742428</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24215,7 +24217,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3548520774129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>183.7447689121902</v>
       </c>
     </row>
     <row r="24">
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>43.01331382666434</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>97.36294473060323</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,22 +24496,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>249.0803115391072</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.1072293333518</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080134</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>125.8003826660207</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>30.45821826926868</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>252.6771565748995</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>47.18544517283286</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>79.23215548632132</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24920,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>272.0145875284693</v>
       </c>
       <c r="G32" t="n">
-        <v>317.9093482875757</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>110.0981677402022</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25166,13 +25168,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>236.0684687183447</v>
       </c>
       <c r="H35" t="n">
-        <v>180.1727408322068</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>118.5577190788904</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>27.7762916742</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>69.72608962756914</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -25403,7 +25405,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>334.5944357385087</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>106.2309441183559</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>214.2052093806116</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,19 +25684,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>334.6529524183166</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>90.77286840263234</v>
+        <v>114.189558399806</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25874,10 +25876,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>178.279041863682</v>
       </c>
       <c r="G44" t="n">
-        <v>352.2511843420247</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25919,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>244.0995083882523</v>
+        <v>2.540411739664933</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>444194.14581853</v>
+        <v>444194.1458185299</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>444194.1458185301</v>
+        <v>444194.1458185299</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>444194.1458185299</v>
+        <v>444194.14581853</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>444194.1458185298</v>
+        <v>444194.1458185299</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>500526.2332542598</v>
+        <v>444194.1458185301</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>500526.2332542597</v>
+        <v>500526.2332542599</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>500526.2332542599</v>
+        <v>500526.2332542598</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>500526.2332542599</v>
+        <v>500526.2332542597</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>500526.2332542597</v>
+        <v>500526.2332542598</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>444194.1458185301</v>
+        <v>500526.2332542599</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26319,22 @@
         <v>120279.4957658232</v>
       </c>
       <c r="D2" t="n">
-        <v>120279.4957658233</v>
+        <v>120279.4957658232</v>
       </c>
       <c r="E2" t="n">
-        <v>120279.4957658233</v>
+        <v>120279.4957658232</v>
       </c>
       <c r="F2" t="n">
         <v>120279.4957658233</v>
       </c>
       <c r="G2" t="n">
-        <v>120279.4957658233</v>
+        <v>120279.4957658232</v>
       </c>
       <c r="H2" t="n">
-        <v>135529.7532061195</v>
+        <v>120279.4957658232</v>
       </c>
       <c r="I2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
       <c r="J2" t="n">
         <v>135529.7532061195</v>
@@ -26350,10 +26352,10 @@
         <v>135529.7532061196</v>
       </c>
       <c r="O2" t="n">
+        <v>135529.7532061196</v>
+      </c>
+      <c r="P2" t="n">
         <v>135529.7532061195</v>
-      </c>
-      <c r="P2" t="n">
-        <v>120279.4957658232</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>25216.73195181807</v>
       </c>
       <c r="J3" t="n">
         <v>120722.5169427569</v>
@@ -26418,22 +26420,22 @@
         <v>38650.95123624726</v>
       </c>
       <c r="C4" t="n">
-        <v>38650.95123624726</v>
+        <v>38650.95123624725</v>
       </c>
       <c r="D4" t="n">
         <v>38650.95123624726</v>
       </c>
       <c r="E4" t="n">
+        <v>38650.95123624727</v>
+      </c>
+      <c r="F4" t="n">
         <v>38650.95123624726</v>
-      </c>
-      <c r="F4" t="n">
-        <v>38650.95123624725</v>
       </c>
       <c r="G4" t="n">
         <v>38650.95123624726</v>
       </c>
       <c r="H4" t="n">
-        <v>43571.76943387373</v>
+        <v>38650.95123624726</v>
       </c>
       <c r="I4" t="n">
         <v>43571.76943387373</v>
@@ -26448,7 +26450,7 @@
         <v>43571.76943387373</v>
       </c>
       <c r="M4" t="n">
-        <v>43571.76943387373</v>
+        <v>43571.76943387372</v>
       </c>
       <c r="N4" t="n">
         <v>43571.76943387373</v>
@@ -26457,7 +26459,7 @@
         <v>43571.76943387373</v>
       </c>
       <c r="P4" t="n">
-        <v>38650.95123624726</v>
+        <v>43571.76943387373</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26487,7 @@
         <v>28053.11427022832</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742812</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="I5" t="n">
         <v>33818.65103742812</v>
@@ -26509,7 +26511,7 @@
         <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26525,22 +26527,22 @@
         <v>19947.83025934765</v>
       </c>
       <c r="D6" t="n">
-        <v>19947.83025934768</v>
+        <v>19947.83025934767</v>
       </c>
       <c r="E6" t="n">
-        <v>53575.43025934771</v>
+        <v>53575.43025934763</v>
       </c>
       <c r="F6" t="n">
-        <v>53575.43025934774</v>
+        <v>53575.43025934769</v>
       </c>
       <c r="G6" t="n">
-        <v>53575.43025934773</v>
+        <v>53575.43025934768</v>
       </c>
       <c r="H6" t="n">
-        <v>32553.90987920234</v>
+        <v>53575.43025934768</v>
       </c>
       <c r="I6" t="n">
-        <v>58139.33273481767</v>
+        <v>32922.60078299962</v>
       </c>
       <c r="J6" t="n">
         <v>-62583.18420793922</v>
@@ -26552,16 +26554,16 @@
         <v>58139.3327348177</v>
       </c>
       <c r="M6" t="n">
-        <v>58139.33273481776</v>
+        <v>58139.33273481771</v>
       </c>
       <c r="N6" t="n">
+        <v>58139.3327348177</v>
+      </c>
+      <c r="O6" t="n">
         <v>58139.33273481773</v>
       </c>
-      <c r="O6" t="n">
-        <v>58139.33273481764</v>
-      </c>
       <c r="P6" t="n">
-        <v>53575.43025934767</v>
+        <v>58139.33273481767</v>
       </c>
     </row>
   </sheetData>
@@ -26805,7 +26807,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="I4" t="n">
         <v>556.2278131155941</v>
@@ -26829,7 +26831,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>94.82790735525992</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>461.3999057603342</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,13 +34707,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>419.8550006816142</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="P2" t="n">
         <v>461.3999057603342</v>
@@ -34772,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L3" t="n">
-        <v>168.3155769623498</v>
-      </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N3" t="n">
         <v>461.3999057603342</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N5" t="n">
-        <v>419.8550006816142</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,25 +35020,25 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>85.46778899800287</v>
       </c>
       <c r="N6" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>168.3155769623498</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35109,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>104.4093672264672</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>419.1474984608587</v>
       </c>
       <c r="L8" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N8" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N9" t="n">
-        <v>168.3155769623496</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>435.2356237478845</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35346,7 +35348,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="L11" t="n">
-        <v>324.0137127175907</v>
       </c>
       <c r="M11" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O11" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>461.3999057603342</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>442.7574853255729</v>
       </c>
       <c r="Q12" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>248.4727266095651</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
         <v>381.3045564404402</v>
@@ -35586,7 +35588,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>419.1474984608587</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M14" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>442.7574853255729</v>
       </c>
       <c r="M15" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="N15" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>377.9290095273263</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35823,7 +35825,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>419.8550006816142</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="L17" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>443.4649875463285</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>442.7574853255729</v>
+        <v>85.46778899800287</v>
       </c>
       <c r="P18" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36057,7 +36059,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>415.010189472638</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>556.2278131155941</v>
+        <v>168.3155769623496</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N21" t="n">
-        <v>75.42597529544641</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,10 +36281,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>358.2720417115361</v>
+        <v>211.6076016844843</v>
       </c>
       <c r="M22" t="n">
         <v>395.137166636617</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
+        <v>167.4878420635545</v>
+      </c>
+      <c r="L23" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O23" t="n">
-        <v>510.5455990486534</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
+        <v>158.2737632597931</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P24" t="n">
-        <v>527.4536661148496</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>510.5455990486533</v>
+      </c>
+      <c r="L26" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>556.2278131155941</v>
@@ -36671,31 +36673,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L27" t="n">
-        <v>67.9041137177578</v>
-      </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="O27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36771,7 +36773,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36837,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M29" t="n">
         <v>556.2278131155941</v>
@@ -36844,10 +36846,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O29" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L30" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>162.8199733981322</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N30" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O30" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37010,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N32" t="n">
-        <v>415.010189472638</v>
-      </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M33" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N33" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P33" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>556.2278131155941</v>
@@ -37318,10 +37320,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O35" t="n">
+        <v>415.010189472638</v>
+      </c>
+      <c r="P35" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37382,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>556.2278131155941</v>
@@ -37400,7 +37402,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P36" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L37" t="n">
         <v>358.2720417115361</v>
@@ -37482,7 +37484,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,16 +37545,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>73.06155854104185</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M38" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N38" t="n">
-        <v>556.2278131155941</v>
+        <v>415.010189472638</v>
       </c>
       <c r="O38" t="n">
         <v>556.2278131155941</v>
@@ -37561,10 +37563,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>556.2278131155941</v>
@@ -37637,13 +37639,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P39" t="n">
-        <v>158.2737632597931</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
         <v>228.8157587937749</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N41" t="n">
-        <v>144.2794790315872</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>158.2737632597932</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N42" t="n">
         <v>556.2278131155941</v>
@@ -37874,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>461.3999057603342</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>419.1474984608589</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38093,7 +38095,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>352.3878357835378</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603342</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L46" t="n">
         <v>358.2720417115361</v>
@@ -38187,10 +38189,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
-        <v>277.0726704737833</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
         <v>128.2829598391535</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149382.9516544217</v>
+        <v>143723.1570779805</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9802884.450357866</v>
+        <v>9802884.450357867</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5436013.765335969</v>
+        <v>5436013.765335968</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>311.8856652398233</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>146.431074697486</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>99.869293778292</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -834,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>196.478449474296</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>140.0226407924334</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -904,19 +904,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>71.77132399094408</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>7.330414960623532</v>
       </c>
       <c r="H7" t="n">
-        <v>84.3940670177053</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>303.3109750897314</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>62.554465845463</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1299,19 +1299,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>75.60471405913184</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>236.2449788946804</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>147.9804087820034</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>274.8814270509649</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>122.6585593529126</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>92.5019652318651</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>252.8252773014387</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>227.3250193537619</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1767,13 +1767,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>68.83205621563042</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>130.4455870091524</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>349.2224812954722</v>
       </c>
       <c r="C17" t="n">
-        <v>395.8556795404756</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2061,16 +2061,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>106.5972205496278</v>
       </c>
       <c r="W19" t="n">
-        <v>177.6354464508438</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>274.8814270509649</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>132.0650913935297</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>139.4851730221162</v>
+        <v>160.6528450947026</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>217.5391284324684</v>
+        <v>63.24594792391646</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2538,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>126.7163958965521</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -2569,13 +2569,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>345.7800537492703</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>38.49556951057837</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>96.4442051068646</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>146.3034971231914</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>302.0171909778951</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>101.2373641501135</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>103.7534293131371</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -3006,13 +3006,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>192.8717243028908</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>148.8583524640244</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3094,7 +3094,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>323.4386896450703</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429482</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>146.3034971231923</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>164.2272030681011</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
         <v>294.8896947407055</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>104.7223743992572</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>133.907313470297</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686474</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3489,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>79.18368284465447</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>57.83300046414789</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>49.87597792716532</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3745,19 +3745,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>80.68448536009392</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3793,19 +3793,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>82.38632349887008</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.07475062513896</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>98.15366458399333</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3960,13 +3960,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>242.5938981288117</v>
+        <v>25.47841348600273</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4137,13 +4137,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>123.0673923170412</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>276.3539409783864</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1204.82568779444</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="C2" t="n">
-        <v>777.9249578077402</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="D2" t="n">
-        <v>777.9249578077402</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="E2" t="n">
-        <v>351.9480179555977</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="F2" t="n">
-        <v>351.9480179555977</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G2" t="n">
         <v>36.91199246082674</v>
@@ -4330,25 +4330,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L2" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M2" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N2" t="n">
-        <v>493.6978991635576</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="O2" t="n">
-        <v>815.1719019525203</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q2" t="n">
         <v>1728.043288159434</v>
@@ -4360,22 +4360,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U2" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V2" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.67405208597</v>
+        <v>1697.68944657923</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.67405208597</v>
+        <v>1292.35217653412</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>316.0561247023296</v>
       </c>
       <c r="K3" t="n">
-        <v>316.0561247023296</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L3" t="n">
-        <v>772.8420314050604</v>
+        <v>932.027809635875</v>
       </c>
       <c r="M3" t="n">
-        <v>1229.627938107791</v>
+        <v>932.027809635875</v>
       </c>
       <c r="N3" t="n">
-        <v>1686.413844810522</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O3" t="n">
-        <v>1686.413844810522</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P3" t="n">
-        <v>1686.413844810522</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q3" t="n">
         <v>1845.599623041337</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>713.2115053602647</v>
+        <v>791.6776425284911</v>
       </c>
       <c r="C4" t="n">
-        <v>541.2389422391807</v>
+        <v>619.7050794074071</v>
       </c>
       <c r="D4" t="n">
-        <v>541.2389422391807</v>
+        <v>619.7050794074071</v>
       </c>
       <c r="E4" t="n">
-        <v>375.0307363920342</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F4" t="n">
-        <v>203.1689621665946</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G4" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H4" t="n">
         <v>36.91199246082674</v>
@@ -4488,52 +4488,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>449.0926419794055</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>840.2784369496563</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1217.769947825692</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U4" t="n">
-        <v>1845.599623041337</v>
+        <v>1348.241513747949</v>
       </c>
       <c r="V4" t="n">
-        <v>1647.13654276427</v>
+        <v>1066.530046355978</v>
       </c>
       <c r="W4" t="n">
-        <v>1372.284138936783</v>
+        <v>791.6776425284911</v>
       </c>
       <c r="X4" t="n">
-        <v>1129.720242382588</v>
+        <v>791.6776425284911</v>
       </c>
       <c r="Y4" t="n">
-        <v>903.3774740723304</v>
+        <v>791.6776425284911</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>887.1053432625264</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="C5" t="n">
-        <v>460.2046132758265</v>
+        <v>1418.698893054637</v>
       </c>
       <c r="D5" t="n">
-        <v>36.91199246082674</v>
+        <v>995.4062722396372</v>
       </c>
       <c r="E5" t="n">
-        <v>36.91199246082674</v>
+        <v>569.4293323874948</v>
       </c>
       <c r="F5" t="n">
-        <v>36.91199246082674</v>
+        <v>144.305150576895</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I5" t="n">
         <v>36.91199246082674</v>
@@ -4570,25 +4570,25 @@
         <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L5" t="n">
-        <v>1313.087264683184</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M5" t="n">
-        <v>1769.873171385915</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N5" t="n">
-        <v>1845.599623041337</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O5" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
@@ -4609,10 +4609,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X5" t="n">
-        <v>1433.879624209084</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1028.542354163974</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J6" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K6" t="n">
-        <v>765.3953884431487</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="L6" t="n">
-        <v>1222.18129514588</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="M6" t="n">
-        <v>1306.794406253902</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N6" t="n">
-        <v>1763.580312956633</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O6" t="n">
-        <v>1763.580312956633</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956633</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4676,7 +4676,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4685,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>961.7748105746105</v>
+        <v>388.1507893635357</v>
       </c>
       <c r="C7" t="n">
-        <v>789.8022474535264</v>
+        <v>216.1782262424517</v>
       </c>
       <c r="D7" t="n">
-        <v>626.4854745802971</v>
+        <v>216.1782262424517</v>
       </c>
       <c r="E7" t="n">
-        <v>460.2772687331507</v>
+        <v>216.1782262424517</v>
       </c>
       <c r="F7" t="n">
-        <v>288.4154945077111</v>
+        <v>44.31645201701212</v>
       </c>
       <c r="G7" t="n">
-        <v>122.1585248019432</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H7" t="n">
         <v>36.91199246082674</v>
@@ -4725,25 +4725,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>1009.314709931336</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N7" t="n">
-        <v>1386.806220807371</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O7" t="n">
-        <v>1742.234349487134</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
@@ -4752,25 +4752,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T7" t="n">
-        <v>1432.125227786372</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.940779286676</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V7" t="n">
-        <v>1151.940779286676</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="W7" t="n">
-        <v>1151.940779286676</v>
+        <v>1047.223422940054</v>
       </c>
       <c r="X7" t="n">
-        <v>1151.940779286676</v>
+        <v>804.6595263858593</v>
       </c>
       <c r="Y7" t="n">
-        <v>1151.940779286676</v>
+        <v>578.3167580756013</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>770.1874447603867</v>
+        <v>1165.096373249486</v>
       </c>
       <c r="C8" t="n">
-        <v>343.2867147736868</v>
+        <v>1165.096373249486</v>
       </c>
       <c r="D8" t="n">
-        <v>36.91199246082674</v>
+        <v>1165.096373249486</v>
       </c>
       <c r="E8" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="F8" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H8" t="n">
         <v>36.91199246082674</v>
@@ -4807,25 +4807,25 @@
         <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>814.4714747539724</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L8" t="n">
-        <v>1271.257381456703</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M8" t="n">
-        <v>1728.043288159434</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="N8" t="n">
-        <v>1728.043288159434</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
@@ -4834,22 +4834,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U8" t="n">
-        <v>1587.244713637749</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V8" t="n">
-        <v>1587.244713637749</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="W8" t="n">
-        <v>1587.244713637749</v>
+        <v>1228.282702386317</v>
       </c>
       <c r="X8" t="n">
-        <v>1175.524714805496</v>
+        <v>1228.282702386317</v>
       </c>
       <c r="Y8" t="n">
-        <v>770.1874447603867</v>
+        <v>1165.096373249486</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273854</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>44.35863542273854</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L9" t="n">
-        <v>501.1445421254694</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="M9" t="n">
-        <v>957.9304488282003</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="N9" t="n">
-        <v>1414.716355530931</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O9" t="n">
-        <v>1845.599623041337</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4913,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4922,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1020.32454672534</v>
+        <v>548.3382947543912</v>
       </c>
       <c r="C10" t="n">
-        <v>848.3519836042556</v>
+        <v>376.3657316333072</v>
       </c>
       <c r="D10" t="n">
-        <v>685.0352107310263</v>
+        <v>213.0489587600779</v>
       </c>
       <c r="E10" t="n">
-        <v>518.8270048838798</v>
+        <v>213.0489587600779</v>
       </c>
       <c r="F10" t="n">
-        <v>346.9652306584402</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I10" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K10" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.464575560472</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U10" t="n">
-        <v>1675.464575560472</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V10" t="n">
-        <v>1675.464575560472</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W10" t="n">
-        <v>1675.464575560472</v>
+        <v>548.3382947543912</v>
       </c>
       <c r="X10" t="n">
-        <v>1436.833283747663</v>
+        <v>548.3382947543912</v>
       </c>
       <c r="Y10" t="n">
-        <v>1210.490515437405</v>
+        <v>548.3382947543912</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1037.488274509431</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="C11" t="n">
-        <v>1037.488274509431</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D11" t="n">
-        <v>1037.488274509431</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E11" t="n">
-        <v>611.5113346572886</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F11" t="n">
-        <v>186.3871528466888</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G11" t="n">
-        <v>186.3871528466888</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H11" t="n">
         <v>36.91199246082674</v>
@@ -5047,16 +5047,16 @@
         <v>36.91199246082674</v>
       </c>
       <c r="L11" t="n">
+        <v>36.91199246082674</v>
+      </c>
+      <c r="M11" t="n">
         <v>493.6978991635576</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>950.4838058662885</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>1407.269712569019</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1845.599623041337</v>
       </c>
       <c r="P11" t="n">
         <v>1845.599623041337</v>
@@ -5071,22 +5071,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T11" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V11" t="n">
-        <v>1845.599623041337</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W11" t="n">
-        <v>1449.208273341684</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="X11" t="n">
-        <v>1037.488274509431</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="Y11" t="n">
-        <v>1037.488274509431</v>
+        <v>334.7803709867919</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J12" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K12" t="n">
-        <v>493.6978991635576</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L12" t="n">
-        <v>493.6978991635576</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="M12" t="n">
-        <v>493.6978991635576</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="N12" t="n">
-        <v>950.4838058662885</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O12" t="n">
-        <v>1407.269712569019</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P12" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q12" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R12" t="n">
         <v>1845.599623041337</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>203.1689621665946</v>
+        <v>332.7820902818225</v>
       </c>
       <c r="C13" t="n">
-        <v>203.1689621665946</v>
+        <v>160.8095271607385</v>
       </c>
       <c r="D13" t="n">
-        <v>203.1689621665946</v>
+        <v>160.8095271607385</v>
       </c>
       <c r="E13" t="n">
-        <v>203.1689621665946</v>
+        <v>160.8095271607385</v>
       </c>
       <c r="F13" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G13" t="n">
         <v>36.91199246082674</v>
@@ -5202,19 +5202,19 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K13" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L13" t="n">
-        <v>430.8949765933859</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M13" t="n">
-        <v>822.0807715636367</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N13" t="n">
-        <v>1199.572282439673</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O13" t="n">
-        <v>1555.000411119436</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P13" t="n">
         <v>1845.599623041337</v>
@@ -5226,25 +5226,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S13" t="n">
-        <v>1752.163294524301</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T13" t="n">
-        <v>1508.823946750201</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U13" t="n">
-        <v>1228.639498250506</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V13" t="n">
-        <v>946.9280308585344</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W13" t="n">
-        <v>672.0756270310475</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X13" t="n">
-        <v>429.5117304768526</v>
+        <v>522.9480589938881</v>
       </c>
       <c r="Y13" t="n">
-        <v>203.1689621665946</v>
+        <v>522.9480589938881</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1845.599623041337</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="C14" t="n">
-        <v>1845.599623041337</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.220555060086</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E14" t="n">
-        <v>1164.243615207943</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F14" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G14" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H14" t="n">
         <v>36.91199246082674</v>
@@ -5278,25 +5278,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K14" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L14" t="n">
-        <v>493.6978991635576</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="M14" t="n">
-        <v>950.4838058662885</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="N14" t="n">
-        <v>1407.269712569019</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O14" t="n">
-        <v>1407.269712569019</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P14" t="n">
-        <v>1407.269712569019</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q14" t="n">
         <v>1728.043288159434</v>
@@ -5311,19 +5311,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U14" t="n">
-        <v>1845.599623041337</v>
+        <v>1615.97839137087</v>
       </c>
       <c r="V14" t="n">
-        <v>1845.599623041337</v>
+        <v>1258.48897649712</v>
       </c>
       <c r="W14" t="n">
-        <v>1845.599623041337</v>
+        <v>862.0976267974665</v>
       </c>
       <c r="X14" t="n">
-        <v>1845.599623041337</v>
+        <v>862.0976267974665</v>
       </c>
       <c r="Y14" t="n">
-        <v>1845.599623041337</v>
+        <v>456.7603567523568</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K15" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L15" t="n">
-        <v>932.0278096358747</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M15" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="N15" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="O15" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P15" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q15" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R15" t="n">
         <v>1845.599623041337</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.4393219715645</v>
+        <v>366.4369711812025</v>
       </c>
       <c r="C16" t="n">
-        <v>36.91199246082674</v>
+        <v>366.4369711812025</v>
       </c>
       <c r="D16" t="n">
-        <v>36.91199246082674</v>
+        <v>203.1201983079732</v>
       </c>
       <c r="E16" t="n">
         <v>36.91199246082674</v>
@@ -5436,25 +5436,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K16" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L16" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M16" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N16" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O16" t="n">
-        <v>1555.000411119436</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P16" t="n">
-        <v>1845.599623041337</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="Q16" t="n">
         <v>1845.599623041337</v>
@@ -5463,25 +5463,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S16" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T16" t="n">
-        <v>1602.260275267237</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U16" t="n">
-        <v>1322.075826767541</v>
+        <v>1300.362008585208</v>
       </c>
       <c r="V16" t="n">
-        <v>1040.36435937557</v>
+        <v>1300.362008585208</v>
       </c>
       <c r="W16" t="n">
-        <v>765.5119555480831</v>
+        <v>1025.509604757721</v>
       </c>
       <c r="X16" t="n">
-        <v>522.9480589938881</v>
+        <v>782.945708203526</v>
       </c>
       <c r="Y16" t="n">
-        <v>296.6052906836302</v>
+        <v>556.6029398932681</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>436.766214218883</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C17" t="n">
         <v>36.91199246082674</v>
@@ -5524,10 +5524,10 @@
         <v>399.5154512777223</v>
       </c>
       <c r="M17" t="n">
-        <v>815.1719019525203</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N17" t="n">
-        <v>815.1719019525203</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O17" t="n">
         <v>815.1719019525203</v>
@@ -5542,25 +5542,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S17" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T17" t="n">
-        <v>1520.30675795911</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U17" t="n">
-        <v>1261.951848555523</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V17" t="n">
-        <v>1261.951848555523</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="W17" t="n">
-        <v>1261.951848555523</v>
+        <v>1228.282702386317</v>
       </c>
       <c r="X17" t="n">
-        <v>1261.951848555523</v>
+        <v>816.5627035540642</v>
       </c>
       <c r="Y17" t="n">
-        <v>856.614578510413</v>
+        <v>816.5627035540642</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C18" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D18" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E18" t="n">
-        <v>277.9876877980092</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F18" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082694</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082694</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J18" t="n">
-        <v>308.609481740418</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K18" t="n">
-        <v>765.3953884431489</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L18" t="n">
-        <v>765.3953884431489</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M18" t="n">
-        <v>765.3953884431489</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N18" t="n">
-        <v>765.3953884431489</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O18" t="n">
-        <v>850.0084995511718</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P18" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q18" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R18" t="n">
         <v>1845.599623041337</v>
@@ -5624,7 +5624,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U18" t="n">
         <v>1437.627243819906</v>
@@ -5633,13 +5633,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W18" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X18" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y18" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>690.7995680049638</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="C19" t="n">
-        <v>518.8270048838798</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="D19" t="n">
-        <v>518.8270048838798</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="E19" t="n">
-        <v>518.8270048838798</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="F19" t="n">
-        <v>346.9652306584402</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="G19" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I19" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J19" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K19" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L19" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M19" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N19" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O19" t="n">
-        <v>1555.000411119436</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P19" t="n">
-        <v>1845.599623041337</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="Q19" t="n">
         <v>1845.599623041337</v>
@@ -5700,25 +5700,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S19" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T19" t="n">
-        <v>1432.125227786372</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U19" t="n">
-        <v>1151.940779286676</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V19" t="n">
-        <v>870.229311894705</v>
+        <v>1214.401866616402</v>
       </c>
       <c r="W19" t="n">
-        <v>690.7995680049638</v>
+        <v>939.549462788915</v>
       </c>
       <c r="X19" t="n">
-        <v>690.7995680049638</v>
+        <v>696.9855662347201</v>
       </c>
       <c r="Y19" t="n">
-        <v>690.7995680049638</v>
+        <v>470.6427979244621</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1425.751258749807</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="C20" t="n">
-        <v>1425.751258749807</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D20" t="n">
-        <v>1292.35217653412</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E20" t="n">
-        <v>866.3752366819779</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F20" t="n">
-        <v>441.2510548713781</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G20" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H20" t="n">
         <v>36.91199246082674</v>
@@ -5761,19 +5761,19 @@
         <v>493.6978991635576</v>
       </c>
       <c r="M20" t="n">
-        <v>950.4838058662885</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N20" t="n">
-        <v>950.4838058662885</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O20" t="n">
-        <v>1407.269712569019</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P20" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q20" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R20" t="n">
         <v>1845.599623041337</v>
@@ -5782,22 +5782,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T20" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U20" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V20" t="n">
-        <v>1845.599623041337</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W20" t="n">
-        <v>1845.599623041337</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="X20" t="n">
-        <v>1845.599623041337</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="Y20" t="n">
-        <v>1845.599623041337</v>
+        <v>612.4383781089787</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I21" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J21" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K21" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L21" t="n">
-        <v>475.2419029331439</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M21" t="n">
-        <v>932.0278096358747</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N21" t="n">
-        <v>932.0278096358747</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="O21" t="n">
-        <v>932.0278096358747</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="P21" t="n">
-        <v>1388.813716338606</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="Q21" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R21" t="n">
         <v>1845.599623041337</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.8845555819107</v>
+        <v>854.1163408781931</v>
       </c>
       <c r="C22" t="n">
-        <v>36.91199246082674</v>
+        <v>682.1437777571091</v>
       </c>
       <c r="D22" t="n">
-        <v>36.91199246082674</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="E22" t="n">
-        <v>36.91199246082674</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F22" t="n">
-        <v>36.91199246082674</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G22" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H22" t="n">
         <v>36.91199246082674</v>
@@ -5913,19 +5913,19 @@
         <v>94.40332068498475</v>
       </c>
       <c r="K22" t="n">
-        <v>94.40332068498475</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L22" t="n">
-        <v>303.8948463526241</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M22" t="n">
-        <v>695.080641322875</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N22" t="n">
-        <v>1072.572152198911</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O22" t="n">
-        <v>1428.000280878674</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="P22" t="n">
         <v>1718.599492800575</v>
@@ -5937,25 +5937,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S22" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T22" t="n">
-        <v>1704.705508877583</v>
+        <v>1513.188974454712</v>
       </c>
       <c r="U22" t="n">
-        <v>1424.521060377887</v>
+        <v>1513.188974454712</v>
       </c>
       <c r="V22" t="n">
-        <v>1142.809592985916</v>
+        <v>1513.188974454712</v>
       </c>
       <c r="W22" t="n">
-        <v>867.9571891584293</v>
+        <v>1513.188974454712</v>
       </c>
       <c r="X22" t="n">
-        <v>625.3932926042344</v>
+        <v>1270.625077900517</v>
       </c>
       <c r="Y22" t="n">
-        <v>399.0505242939764</v>
+        <v>1044.282309590259</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1173.606395972464</v>
+        <v>769.2673335619127</v>
       </c>
       <c r="C23" t="n">
-        <v>746.7056659857641</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="D23" t="n">
-        <v>746.7056659857641</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E23" t="n">
-        <v>746.7056659857641</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F23" t="n">
-        <v>746.7056659857641</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G23" t="n">
         <v>342.3666035752127</v>
@@ -5992,49 +5992,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>572.914647509062</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L23" t="n">
-        <v>1123.5801824935</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M23" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N23" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O23" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P23" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q23" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R23" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W23" t="n">
-        <v>2224.911252462377</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X23" t="n">
-        <v>1813.191253630124</v>
+        <v>833.1521294446566</v>
       </c>
       <c r="Y23" t="n">
-        <v>1593.454760263994</v>
+        <v>769.2673335619127</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J24" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K24" t="n">
-        <v>201.1892506764427</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L24" t="n">
-        <v>201.1892506764427</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M24" t="n">
-        <v>201.1892506764427</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N24" t="n">
-        <v>751.8547856608809</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O24" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P24" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q24" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R24" t="n">
         <v>1853.185855629757</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1127.679347573484</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C25" t="n">
-        <v>955.7067844524004</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D25" t="n">
-        <v>792.3900115791711</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E25" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F25" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G25" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H25" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I25" t="n">
         <v>44.49822504924753</v>
@@ -6171,28 +6171,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T25" t="n">
-        <v>2007.737591668684</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U25" t="n">
-        <v>1727.553143168988</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V25" t="n">
-        <v>1445.841675777017</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W25" t="n">
-        <v>1445.841675777017</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X25" t="n">
-        <v>1445.841675777017</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y25" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1780.689568770218</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="C26" t="n">
-        <v>1353.788838783518</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="D26" t="n">
-        <v>930.4962179685185</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="E26" t="n">
-        <v>504.5192781163761</v>
+        <v>818.8951884247668</v>
       </c>
       <c r="F26" t="n">
-        <v>79.39509630577632</v>
+        <v>393.771006614167</v>
       </c>
       <c r="G26" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H26" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I26" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L26" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="M26" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="N26" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="O26" t="n">
         <v>1100.603903091853</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1100.603903091853</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1100.603903091853</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1651.269438076291</v>
       </c>
       <c r="P26" t="n">
         <v>1651.269438076291</v>
@@ -6253,25 +6253,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V26" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W26" t="n">
-        <v>2224.911252462377</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X26" t="n">
-        <v>2186.026838815328</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="Y26" t="n">
-        <v>1780.689568770218</v>
+        <v>1244.872128276909</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J27" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K27" t="n">
-        <v>323.6423572907505</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L27" t="n">
-        <v>874.3078922751886</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M27" t="n">
-        <v>874.3078922751886</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N27" t="n">
-        <v>1389.040378766978</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O27" t="n">
-        <v>1389.040378766978</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P27" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q27" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R27" t="n">
         <v>1853.185855629757</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1127.679347573484</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C28" t="n">
-        <v>955.7067844524004</v>
+        <v>313.77838827152</v>
       </c>
       <c r="D28" t="n">
-        <v>792.3900115791711</v>
+        <v>313.77838827152</v>
       </c>
       <c r="E28" t="n">
-        <v>626.1818057320246</v>
+        <v>313.77838827152</v>
       </c>
       <c r="F28" t="n">
-        <v>454.3200315065851</v>
+        <v>141.9166140460805</v>
       </c>
       <c r="G28" t="n">
-        <v>288.0630618008172</v>
+        <v>141.9166140460805</v>
       </c>
       <c r="H28" t="n">
-        <v>144.2667933089716</v>
+        <v>141.9166140460805</v>
       </c>
       <c r="I28" t="n">
         <v>44.49822504924753</v>
@@ -6396,40 +6396,40 @@
         <v>1074.392270743914</v>
       </c>
       <c r="N28" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O28" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P28" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q28" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R28" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S28" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T28" t="n">
-        <v>1934.533291375449</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U28" t="n">
-        <v>1934.533291375449</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V28" t="n">
-        <v>1934.533291375449</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W28" t="n">
-        <v>1786.751981150003</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X28" t="n">
-        <v>1544.188084595808</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y28" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>894.6915758509472</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="C29" t="n">
-        <v>467.7908458642473</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="D29" t="n">
-        <v>44.49822504924753</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="E29" t="n">
-        <v>44.49822504924753</v>
+        <v>682.3313445063831</v>
       </c>
       <c r="F29" t="n">
-        <v>44.49822504924753</v>
+        <v>682.3313445063831</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I29" t="n">
         <v>44.49822504924753</v>
@@ -6469,46 +6469,46 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L29" t="n">
-        <v>572.914647509062</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M29" t="n">
-        <v>1123.5801824935</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N29" t="n">
-        <v>1674.245717477938</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O29" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P29" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R29" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.911252462377</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V29" t="n">
-        <v>2122.651288674383</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W29" t="n">
-        <v>1726.25993897473</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X29" t="n">
-        <v>1314.539940142477</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="Y29" t="n">
-        <v>1314.539940142477</v>
+        <v>1108.308284358525</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K30" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L30" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M30" t="n">
-        <v>595.1637600336857</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N30" t="n">
-        <v>756.3555336978366</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O30" t="n">
-        <v>756.3555336978366</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P30" t="n">
         <v>1307.021068682275</v>
@@ -6630,16 +6630,16 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M31" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N31" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O31" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P31" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q31" t="n">
         <v>2224.911252462377</v>
@@ -6654,19 +6654,19 @@
         <v>1981.571904688276</v>
       </c>
       <c r="U31" t="n">
-        <v>1981.571904688276</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V31" t="n">
-        <v>1981.571904688276</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="W31" t="n">
-        <v>1786.751981150003</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="X31" t="n">
-        <v>1544.188084595808</v>
+        <v>1458.823559634386</v>
       </c>
       <c r="Y31" t="n">
-        <v>1317.84531628555</v>
+        <v>1232.480791324128</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1471.030487888973</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="C32" t="n">
-        <v>1044.129757902273</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D32" t="n">
-        <v>620.8371370872733</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E32" t="n">
-        <v>194.8601972351308</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924753</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I32" t="n">
         <v>44.49822504924753</v>
@@ -6706,46 +6706,46 @@
         <v>407.101683866143</v>
       </c>
       <c r="L32" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M32" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N32" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O32" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P32" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q32" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R32" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462377</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V32" t="n">
-        <v>1867.421837588626</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W32" t="n">
-        <v>1471.030487888973</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X32" t="n">
-        <v>1471.030487888973</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="Y32" t="n">
-        <v>1471.030487888973</v>
+        <v>781.6025372422929</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>595.1637600336857</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M33" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N33" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O33" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P33" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q33" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R33" t="n">
         <v>1853.185855629757</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>268.5772905989122</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C34" t="n">
-        <v>96.60472747782816</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E34" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F34" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G34" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H34" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I34" t="n">
         <v>44.49822504924753</v>
@@ -6885,25 +6885,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S34" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.398243894585</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U34" t="n">
-        <v>1484.213795394889</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="V34" t="n">
-        <v>1202.502328002918</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="W34" t="n">
-        <v>927.6499241754307</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X34" t="n">
-        <v>685.0860276212358</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y34" t="n">
-        <v>458.7432593109778</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1393.342889338594</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="C35" t="n">
-        <v>966.4421593518939</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D35" t="n">
-        <v>543.1495385368942</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E35" t="n">
-        <v>543.1495385368942</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F35" t="n">
-        <v>543.1495385368942</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G35" t="n">
         <v>377.2634748317415</v>
@@ -6943,46 +6943,46 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L35" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M35" t="n">
-        <v>595.1637600336857</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N35" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O35" t="n">
-        <v>1556.689382596036</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P35" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R35" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V35" t="n">
-        <v>2224.911252462377</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W35" t="n">
-        <v>2224.911252462377</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.191253630124</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="Y35" t="n">
-        <v>1813.191253630124</v>
+        <v>781.6025372422929</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L36" t="n">
-        <v>751.8547856608809</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M36" t="n">
-        <v>751.8547856608809</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N36" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O36" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P36" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q36" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R36" t="n">
         <v>1853.185855629757</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>927.6499241754307</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C37" t="n">
-        <v>927.6499241754307</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D37" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E37" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F37" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G37" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H37" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I37" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K37" t="n">
         <v>328.5171544792433</v>
@@ -7119,28 +7119,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.737591668685</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.398243894585</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U37" t="n">
-        <v>1484.213795394889</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V37" t="n">
-        <v>1202.502328002918</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W37" t="n">
-        <v>927.6499241754307</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X37" t="n">
-        <v>927.6499241754307</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y37" t="n">
-        <v>927.6499241754307</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>929.588447107476</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="C38" t="n">
-        <v>502.687717120776</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="D38" t="n">
-        <v>79.39509630577632</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="E38" t="n">
-        <v>79.39509630577632</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F38" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G38" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H38" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I38" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L38" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M38" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N38" t="n">
-        <v>1556.689382596036</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O38" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P38" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q38" t="n">
         <v>2107.354917580474</v>
@@ -7201,25 +7201,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V38" t="n">
-        <v>2224.911252462377</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W38" t="n">
-        <v>2166.494080276369</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X38" t="n">
-        <v>1754.774081444116</v>
+        <v>954.9431949298605</v>
       </c>
       <c r="Y38" t="n">
-        <v>1349.436811399006</v>
+        <v>549.6059248847508</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K39" t="n">
-        <v>44.49822504924753</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L39" t="n">
-        <v>44.49822504924753</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M39" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N39" t="n">
-        <v>1145.829295018124</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O39" t="n">
-        <v>1696.494830002562</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P39" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q39" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R39" t="n">
         <v>1853.185855629757</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C40" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D40" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E40" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F40" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G40" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I40" t="n">
         <v>44.49822504924753</v>
@@ -7356,28 +7356,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S40" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T40" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U40" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V40" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W40" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X40" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y40" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1862.189048931929</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="C41" t="n">
-        <v>1435.288318945229</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D41" t="n">
-        <v>1011.99569813023</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E41" t="n">
-        <v>586.0187582780871</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F41" t="n">
-        <v>160.8945764674874</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G41" t="n">
-        <v>160.8945764674874</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H41" t="n">
         <v>79.39509630577632</v>
@@ -7411,25 +7411,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L41" t="n">
-        <v>667.4947029893171</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M41" t="n">
-        <v>667.4947029893171</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N41" t="n">
-        <v>1218.160237973755</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O41" t="n">
-        <v>1218.160237973755</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P41" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q41" t="n">
         <v>2224.911252462377</v>
@@ -7441,22 +7441,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T41" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U41" t="n">
-        <v>1862.189048931929</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V41" t="n">
-        <v>1862.189048931929</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W41" t="n">
-        <v>1862.189048931929</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X41" t="n">
-        <v>1862.189048931929</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="Y41" t="n">
-        <v>1862.189048931929</v>
+        <v>804.1642048184415</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K42" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L42" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M42" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="N42" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="L42" t="n">
-        <v>751.8547856608809</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1302.520320645319</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1853.185855629757</v>
-      </c>
       <c r="O42" t="n">
-        <v>1853.185855629757</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P42" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q42" t="n">
         <v>1853.185855629757</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1127.679347573484</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C43" t="n">
-        <v>955.7067844524004</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="D43" t="n">
-        <v>792.3900115791711</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="E43" t="n">
-        <v>626.1818057320246</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="F43" t="n">
-        <v>454.3200315065851</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="G43" t="n">
-        <v>288.0630618008172</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="H43" t="n">
-        <v>144.2667933089716</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="I43" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J43" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K43" t="n">
         <v>328.5171544792433</v>
@@ -7593,28 +7593,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R43" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S43" t="n">
-        <v>2007.737591668685</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.398243894585</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U43" t="n">
-        <v>1484.213795394889</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V43" t="n">
-        <v>1202.502328002918</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.502328002918</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.502328002918</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y43" t="n">
-        <v>1202.502328002918</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>991.7500075300184</v>
+        <v>807.3383084402755</v>
       </c>
       <c r="C44" t="n">
-        <v>991.7500075300184</v>
+        <v>807.3383084402755</v>
       </c>
       <c r="D44" t="n">
-        <v>991.7500075300184</v>
+        <v>807.3383084402755</v>
       </c>
       <c r="E44" t="n">
-        <v>991.7500075300184</v>
+        <v>807.3383084402755</v>
       </c>
       <c r="F44" t="n">
-        <v>746.7056659857641</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G44" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I44" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
         <v>549.9383681074144</v>
@@ -7663,7 +7663,7 @@
         <v>1100.603903091853</v>
       </c>
       <c r="O44" t="n">
-        <v>1100.603903091853</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P44" t="n">
         <v>1651.269438076291</v>
@@ -7678,22 +7678,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T44" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U44" t="n">
-        <v>1745.630772103422</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V44" t="n">
-        <v>1388.141357229671</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W44" t="n">
-        <v>991.7500075300184</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X44" t="n">
-        <v>991.7500075300184</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="Y44" t="n">
-        <v>991.7500075300184</v>
+        <v>807.3383084402755</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J45" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K45" t="n">
-        <v>323.6423572907505</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L45" t="n">
-        <v>323.6423572907505</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6423572907505</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N45" t="n">
-        <v>323.6423572907505</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O45" t="n">
-        <v>874.3078922751886</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P45" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q45" t="n">
         <v>1853.185855629757</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>545.9957668907073</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C46" t="n">
-        <v>374.0232037696233</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="D46" t="n">
-        <v>210.706430896394</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E46" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F46" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G46" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H46" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I46" t="n">
         <v>44.49822504924753</v>
@@ -7842,16 +7842,16 @@
         <v>1484.213795394889</v>
       </c>
       <c r="V46" t="n">
-        <v>1205.068400467226</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W46" t="n">
-        <v>1205.068400467226</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X46" t="n">
-        <v>962.5045039130309</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y46" t="n">
-        <v>736.161735602773</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
@@ -7990,16 +7990,16 @@
         <v>498.831168659766</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O2" t="n">
-        <v>362.1121742943703</v>
+        <v>456.538457816883</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8060,25 +8060,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>183.3088020988907</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>482.7429339738759</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>183.5407536736397</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8151,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>234.8530592691132</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>113.770988142953</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>108.5645695103309</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8388,13 +8388,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961649</v>
+        <v>299.5718579722078</v>
       </c>
       <c r="P7" t="n">
-        <v>126.7901678844537</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,13 +8455,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>454.9120992556681</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>499.7119481929572</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>114.6301304286942</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
@@ -8470,13 +8470,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>482.7429339738759</v>
       </c>
       <c r="O9" t="n">
-        <v>458.4075134701067</v>
+        <v>101.1178171425364</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8631,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
         <v>498.831168659766</v>
@@ -8704,10 +8704,10 @@
         <v>498.6795285947802</v>
       </c>
       <c r="O11" t="n">
-        <v>480.1484446815972</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>480.3328471358044</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8783,16 +8783,16 @@
         <v>482.7429339738759</v>
       </c>
       <c r="O12" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425364</v>
       </c>
       <c r="P12" t="n">
-        <v>464.5283265304016</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8865,7 +8865,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>126.7901678844537</v>
       </c>
       <c r="Q13" t="n">
         <v>24.61956276478495</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L14" t="n">
-        <v>499.7119481929572</v>
+        <v>458.1670431142373</v>
       </c>
       <c r="M14" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>37.3909593560241</v>
@@ -8947,7 +8947,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.1383873221887</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9002,25 +9002,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L15" t="n">
-        <v>465.2725720398024</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M15" t="n">
-        <v>484.4966862726622</v>
+        <v>101.0427079326423</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9029,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9102,10 +9102,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.61956276478495</v>
+        <v>70.95688127998122</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9172,13 +9172,13 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>457.2862635810461</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P17" t="n">
         <v>498.9752675705655</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
@@ -9248,25 +9248,25 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>183.8904958969889</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>108.6396787202251</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>483.1707469651629</v>
       </c>
       <c r="Q18" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9339,10 +9339,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.61956276478495</v>
+        <v>70.95688127998122</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9409,22 +9409,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>498.7908651163583</v>
+        <v>362.1121742943703</v>
       </c>
       <c r="P20" t="n">
-        <v>480.3328471358044</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L21" t="n">
-        <v>190.8306636765791</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M21" t="n">
         <v>484.4966862726622</v>
@@ -9497,13 +9497,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>484.1469440493127</v>
+        <v>100.6929657092928</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,10 +9561,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>233.5263615801855</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
         <v>417.7126065281028</v>
@@ -9573,10 +9573,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>299.4534711317698</v>
       </c>
       <c r="Q22" t="n">
         <v>152.9025226039384</v>
@@ -9640,28 +9640,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>203.2524428583638</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L23" t="n">
-        <v>594.539855548217</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M23" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>180.6729970931265</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>546.3101998434627</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L26" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>37.43126289943181</v>
@@ -9889,10 +9889,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L27" t="n">
-        <v>578.7428998298237</v>
+        <v>185.3350601123618</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>541.2748327507026</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>402.0534574160406</v>
+        <v>402.0534574160413</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
@@ -10117,25 +10117,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>572.0660045132436</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>593.5074359500402</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P29" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>578.6270469489275</v>
@@ -10199,16 +10199,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N30" t="n">
-        <v>184.1630016116739</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
@@ -10278,7 +10278,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281034</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10354,25 +10354,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O32" t="n">
-        <v>300.4142109955939</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279221</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>98.17301358442491</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,16 +10591,16 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150259</v>
+        <v>571.1852249800525</v>
       </c>
       <c r="N35" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>452.4011488286621</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P35" t="n">
         <v>593.8031749258255</v>
@@ -10609,7 +10609,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L36" t="n">
-        <v>462.5747547263935</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L38" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>452.289812307084</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10901,31 +10901,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291358</v>
+        <v>548.7966943283913</v>
       </c>
       <c r="O39" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>97.19681650027508</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>111.3736009736648</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N41" t="n">
-        <v>593.5074359500402</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
@@ -11080,7 +11080,7 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11141,25 +11141,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>180.7888499740228</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>268.8396510847011</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>546.3101998434627</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L44" t="n">
         <v>594.539855548217</v>
@@ -11311,10 +11311,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P44" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>462.5747547263934</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11390,13 +11390,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>541.7026457419896</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -22558,10 +22558,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>88.41000654662258</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22600,7 +22600,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -22612,10 +22612,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>261.1717241464442</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22713,7 +22713,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>64.67683001038297</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22722,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>82.41590324375542</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>275.6272398561813</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22792,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>328.5243477955017</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22849,10 +22849,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22947,19 +22947,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>157.2639850480867</v>
       </c>
       <c r="H7" t="n">
-        <v>57.96423878922185</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -22992,7 +22992,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,22 +23023,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>115.7487195171183</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23074,22 +23074,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>338.7294314991956</v>
       </c>
     </row>
     <row r="9">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -23187,19 +23187,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>94.53844242405334</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>3.893278693972519</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -23266,16 +23266,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>146.9092859587021</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23311,22 +23311,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>126.4024702936937</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,10 +23427,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>47.48459713027255</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23466,7 +23466,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>75.93173177419139</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>166.234417305411</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23551,19 +23551,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>28.44634095578988</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>101.4207812742427</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>146.9370170055464</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>66.42739935314256</v>
       </c>
       <c r="C17" t="n">
-        <v>26.77604314635721</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23901,16 +23901,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>172.2971321684236</v>
       </c>
       <c r="W19" t="n">
-        <v>94.46843333836833</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>140.7684535976499</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>286.99460321332</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24022,16 +24022,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,19 +24177,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>101.4207812742428</v>
+        <v>80.25310920165643</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>183.7447689121902</v>
+        <v>338.0379494207421</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>63.52994056050457</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.36294473060323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>54.51561803717556</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.1072293333518</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.326677470262183</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>125.8003826660207</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>98.27848080855074</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>252.6771565748995</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>84.51087971180787</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>79.23215548632132</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,25 +24919,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>272.0145875284693</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>84.16410919885993</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402022</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>125.8003826660198</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -25168,7 +25168,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>236.0684687183447</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>302.8804244446731</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>27.7762916742</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.98949189919175</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>336.4661978039603</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
@@ -25411,7 +25411,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -25450,10 +25450,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>334.5944357385087</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>214.2052093806116</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>325.2164753450601</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>114.189558399806</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.6172179931334512</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25876,7 +25876,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>178.279041863682</v>
+        <v>395.394526506491</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>38.61621282745581</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -26043,7 +26043,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2.540411739664933</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>444194.1458185299</v>
+        <v>444194.1458185298</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>444194.1458185299</v>
+        <v>444194.1458185301</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>444194.1458185299</v>
+        <v>444194.1458185301</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>444194.1458185299</v>
+        <v>444194.14581853</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>444194.1458185299</v>
+        <v>444194.14581853</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>500526.2332542599</v>
+        <v>500526.2332542597</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>500526.2332542598</v>
+        <v>500526.2332542599</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>500526.2332542599</v>
+        <v>500526.2332542597</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>120279.4957658232</v>
       </c>
       <c r="E2" t="n">
+        <v>120279.4957658233</v>
+      </c>
+      <c r="F2" t="n">
         <v>120279.4957658232</v>
-      </c>
-      <c r="F2" t="n">
-        <v>120279.4957658233</v>
       </c>
       <c r="G2" t="n">
         <v>120279.4957658232</v>
@@ -26334,10 +26334,10 @@
         <v>120279.4957658232</v>
       </c>
       <c r="I2" t="n">
+        <v>135529.7532061195</v>
+      </c>
+      <c r="J2" t="n">
         <v>135529.7532061196</v>
-      </c>
-      <c r="J2" t="n">
-        <v>135529.7532061195</v>
       </c>
       <c r="K2" t="n">
         <v>135529.7532061196</v>
@@ -26349,13 +26349,13 @@
         <v>135529.7532061196</v>
       </c>
       <c r="N2" t="n">
+        <v>135529.7532061195</v>
+      </c>
+      <c r="O2" t="n">
+        <v>135529.7532061195</v>
+      </c>
+      <c r="P2" t="n">
         <v>135529.7532061196</v>
-      </c>
-      <c r="O2" t="n">
-        <v>135529.7532061196</v>
-      </c>
-      <c r="P2" t="n">
-        <v>135529.7532061195</v>
       </c>
     </row>
     <row r="3">
@@ -26420,13 +26420,13 @@
         <v>38650.95123624726</v>
       </c>
       <c r="C4" t="n">
-        <v>38650.95123624725</v>
+        <v>38650.95123624726</v>
       </c>
       <c r="D4" t="n">
         <v>38650.95123624726</v>
       </c>
       <c r="E4" t="n">
-        <v>38650.95123624727</v>
+        <v>38650.95123624726</v>
       </c>
       <c r="F4" t="n">
         <v>38650.95123624726</v>
@@ -26438,7 +26438,7 @@
         <v>38650.95123624726</v>
       </c>
       <c r="I4" t="n">
-        <v>43571.76943387373</v>
+        <v>43571.76943387372</v>
       </c>
       <c r="J4" t="n">
         <v>43571.76943387373</v>
@@ -26450,13 +26450,13 @@
         <v>43571.76943387373</v>
       </c>
       <c r="M4" t="n">
-        <v>43571.76943387372</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="N4" t="n">
         <v>43571.76943387373</v>
       </c>
       <c r="O4" t="n">
-        <v>43571.76943387373</v>
+        <v>43571.76943387372</v>
       </c>
       <c r="P4" t="n">
         <v>43571.76943387373</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134677.8903587728</v>
+        <v>-135382.2501802643</v>
       </c>
       <c r="C6" t="n">
-        <v>19947.83025934765</v>
+        <v>19243.47043785616</v>
       </c>
       <c r="D6" t="n">
-        <v>19947.83025934767</v>
+        <v>19243.47043785616</v>
       </c>
       <c r="E6" t="n">
-        <v>53575.43025934763</v>
+        <v>52871.07043785619</v>
       </c>
       <c r="F6" t="n">
-        <v>53575.43025934769</v>
+        <v>52871.07043785611</v>
       </c>
       <c r="G6" t="n">
-        <v>53575.43025934768</v>
+        <v>52871.07043785614</v>
       </c>
       <c r="H6" t="n">
-        <v>53575.43025934768</v>
+        <v>52871.07043785614</v>
       </c>
       <c r="I6" t="n">
-        <v>32922.60078299962</v>
+        <v>32313.55507050995</v>
       </c>
       <c r="J6" t="n">
-        <v>-62583.18420793922</v>
+        <v>-63192.22992042885</v>
       </c>
       <c r="K6" t="n">
-        <v>58139.33273481773</v>
+        <v>57530.28702232803</v>
       </c>
       <c r="L6" t="n">
-        <v>58139.3327348177</v>
+        <v>57530.28702232803</v>
       </c>
       <c r="M6" t="n">
-        <v>58139.33273481771</v>
+        <v>57530.28702232803</v>
       </c>
       <c r="N6" t="n">
-        <v>58139.3327348177</v>
+        <v>57530.28702232798</v>
       </c>
       <c r="O6" t="n">
-        <v>58139.33273481773</v>
+        <v>57530.28702232802</v>
       </c>
       <c r="P6" t="n">
-        <v>58139.33273481767</v>
+        <v>57530.28702232803</v>
       </c>
     </row>
   </sheetData>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34710,16 +34710,16 @@
         <v>461.3999057603342</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O2" t="n">
-        <v>324.7212149383462</v>
+        <v>419.1474984608589</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34780,25 +34780,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>160.7937153846612</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34871,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>212.3538717706888</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>419.8550006816142</v>
+      </c>
+      <c r="P5" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L5" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="M5" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="N5" t="n">
-        <v>76.49136530850697</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>77.9459274203145</v>
+      </c>
+      <c r="P6" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="M6" t="n">
-        <v>85.46778899800287</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35108,13 +35108,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977405</v>
+        <v>277.0726704737833</v>
       </c>
       <c r="P7" t="n">
-        <v>104.4093672264672</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>419.1474984608587</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="M8" t="n">
+        <v>77.19886752926243</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="O9" t="n">
-        <v>435.2356237478845</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35351,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>461.3999057603342</v>
@@ -35424,10 +35424,10 @@
         <v>461.3999057603342</v>
       </c>
       <c r="O11" t="n">
+        <v>461.3999057603342</v>
+      </c>
+      <c r="P11" t="n">
         <v>442.7574853255731</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>461.3999057603342</v>
       </c>
       <c r="O12" t="n">
+        <v>77.94592742031416</v>
+      </c>
+      <c r="P12" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="P12" t="n">
-        <v>442.7574853255729</v>
-      </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
@@ -35585,7 +35585,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>293.5345574968697</v>
+        <v>104.4093672264672</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L14" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="M14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.0137127175907</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35722,26 +35722,26 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="L15" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M15" t="n">
+        <v>77.94592742031428</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N15" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
@@ -35822,10 +35822,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,13 +35892,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>419.8550006816142</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>461.3999057603342</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
@@ -35968,25 +35968,25 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>160.7937153846609</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>85.46778899800287</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36059,10 +36059,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36129,22 +36129,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>324.7212149383462</v>
+      </c>
+      <c r="P20" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="P20" t="n">
-        <v>442.7574853255731</v>
-      </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L21" t="n">
-        <v>168.3155769623496</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M21" t="n">
         <v>461.3999057603342</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>461.3999057603342</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,10 +36281,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>211.6076016844843</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
         <v>395.137166636617</v>
@@ -36293,10 +36293,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>293.5345574968697</v>
+        <v>277.0726704737833</v>
       </c>
       <c r="Q22" t="n">
         <v>128.2829598391535</v>
@@ -36360,28 +36360,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>167.4878420635545</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L23" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M23" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N23" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>510.5455990486533</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P26" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L27" t="n">
+        <v>162.8199733981322</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>519.9318045371609</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36764,7 +36764,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N28" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404409</v>
       </c>
       <c r="O28" t="n">
         <v>359.0183117977405</v>
@@ -36837,25 +36837,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>510.5455990486533</v>
+      </c>
+      <c r="O29" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N29" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>556.2278131155941</v>
@@ -36919,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N30" t="n">
-        <v>162.8199733981322</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
@@ -36998,7 +36998,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M31" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366176</v>
       </c>
       <c r="N31" t="n">
         <v>381.3045564404402</v>
@@ -37010,7 +37010,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="O32" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
+      <c r="P32" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O32" t="n">
-        <v>263.0232516395698</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155941</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>75.42597529544641</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M35" t="n">
+        <v>533.7539620806207</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N35" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O35" t="n">
-        <v>415.010189472638</v>
       </c>
       <c r="P35" t="n">
         <v>556.2278131155941</v>
@@ -37329,7 +37329,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L36" t="n">
-        <v>440.0596680121639</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L37" t="n">
         <v>358.2720417115361</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P38" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M38" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N38" t="n">
-        <v>415.010189472638</v>
-      </c>
-      <c r="O38" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155941</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="O39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>75.42597529544641</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L41" t="n">
-        <v>73.0615585410419</v>
-      </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N41" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>158.2737632597932</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>245.6677613624789</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L43" t="n">
         <v>358.2720417115361</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>510.5455990486533</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L44" t="n">
         <v>556.2278131155941</v>
@@ -38031,10 +38031,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P44" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P45" t="n">
-        <v>519.9318045371609</v>
-      </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
